--- a/BalanceofTrade.xlsx
+++ b/BalanceofTrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradivan\Documents\GitHub\CovidEconomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE67959-EDED-4294-B9B9-E424776F00BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB15E40-EE0C-4258-82C9-C1655FEC435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3553,7 +3553,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
